--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0502_Permission!$A$1:$J$44</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0502_Permission!$A$1:$J$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0502_Permission!$A$1:$J$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0502_Permission!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0502_Permission!$1:$5</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -377,30 +377,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>系統進行人員、組織查詢時。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>查詢人員</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>vw_emp_unique</t>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -414,10 +395,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>IPO Model</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -430,61 +407,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1.底層共用API，提供各模組於實際查詢資料時判斷該登入人員於該功能中被賦予的組織查詢範圍
-2.因僅為角色設定的最上層組織代號，仍需經共通性主檔API取得完整可查詢組織代號List</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>提供各模組查詢人員、組織時使用。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>速達3代各模組</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.提供可處理資料範圍API - Function
-2.各模組查詢模組本身DB</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0501_QueryScope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0501_QueryScope
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0501_QueryScope</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -493,54 +415,14 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>3.1 取得人員所屬單位預設可查詢範圍</t>
-    <phoneticPr fontId="2"/>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vw_emp_unique</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>search_org_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 取得職稱角色代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限分類(CRUD)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>apf_roleprofile</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -556,25 +438,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>功能清單代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>權限職稱代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3.3 取得自訂角色代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-  </si>
-  <si>
-    <t>I、O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -587,10 +454,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>action_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>apf_roleprofile.group_id = 權限職稱代號</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -599,71 +462,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>node_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission.role_id = 群組識別值 and 
-apf_permission.controller_id = 功能識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node.node_id = 功能清單代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique.emp_id = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Core_User</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User.Account = 員工編號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可查詢範圍單位代號</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_org_unique.org_id = 可查詢範圍單位代號，並以遞迴方式找出所有下轄單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Core_User_RoleRelation</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -676,39 +482,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>3.4 查詢職稱角色、自訂角色可查詢範圍</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>由3.2、3.3查詢合併後的群組識別值List</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>單位代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_scope.Rid = 群組識別值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -728,12 +506,182 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>欄位_APF0502_Permission</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理模組、速達3代各模組</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提供登入時查詢可使用的功能清單</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者登入時由APF呼叫處理，提供該登入人員在各模組可使用的所有功能清單
+2.提供各模組備援登入時呼叫處理(維護使用)，提供該登入人員在特定模組可使用的所有功能清單</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Framework底層功能
+1.提供可處理資料範圍API - Function
+2.多型化Function，提供2種傳入參數機制
+3.由APF呼叫並提供人員可顯示功能清單資訊
+4.其餘模組呼叫則做為系統人員維護處理之用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>畫面_APF0502_Permission</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>欄位_APF0502_Permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>APF登入或各模組登入測試畫面時。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0502_Permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 取得預設角色可使用功能清單及其權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.2 取得職稱角色群組識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.3 取得自訂角色群組識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.4 查詢可使用功能清單</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限分類(CRUDO)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設角色之Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇性參數，當各模組登入測試畫面時使用
+apf_menu_node.module_id = 模組代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C = Create, R = Read, U = Update, D = Delete, O = Output</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0502_Permission
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫API時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0502_Permission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0502_Permission</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1241,7 +1189,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1439,13 +1387,70 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1454,27 +1459,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1484,41 +1468,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1529,10 +1615,34 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1544,36 +1654,6 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1588,145 +1668,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2784,8 +2729,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>52</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4273,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4288,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4324,10 +4269,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -4336,24 +4281,24 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="170" t="s">
-        <v>51</v>
+      <c r="D5" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="C6" s="34"/>
-      <c r="D6" s="170" t="s">
-        <v>51</v>
+      <c r="D6" s="35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4673,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4689,15 +4634,15 @@
       <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="88" t="s">
+      <c r="M1" s="73" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4714,243 +4659,250 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="A10" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="A12" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="91"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="A14" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="78" customHeight="1">
-      <c r="A16" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
+      <c r="A16" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
+      <c r="A17" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="94"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4967,13 +4919,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5058,8 +5003,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5089,7 +5034,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="130" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="50"/>
@@ -5110,7 +5055,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5123,7 +5068,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5138,152 +5083,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="139"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="143" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="143" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5292,70 +5237,70 @@
       <c r="B16" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="145" t="s">
+      <c r="C16" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="126"/>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="119"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5364,104 +5309,104 @@
       <c r="B21" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="145" t="s">
+      <c r="C21" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="154" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+        <v>131</v>
+      </c>
+      <c r="C22" s="100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+        <v>129</v>
+      </c>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+        <v>130</v>
+      </c>
+      <c r="C24" s="106"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
+      <c r="A27" s="109" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5476,14 +5421,14 @@
       <c r="D28" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="165" t="s">
+      <c r="E28" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5492,180 +5437,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="A31" s="132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="133"/>
+      <c r="C31" s="133"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="133"/>
+      <c r="J31" s="134"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="A32" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="153"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="153"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="166"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="163"/>
+      <c r="D37" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="160"/>
+      <c r="F38" s="160"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="160"/>
+      <c r="I38" s="160"/>
+      <c r="J38" s="161"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="159"/>
+      <c r="B41" s="160"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="161"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="146"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="148"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5688,14 +5633,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5704,27 +5649,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5741,16 +5686,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5770,10 +5715,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5803,7 +5748,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="130" t="s">
         <v>55</v>
       </c>
       <c r="L1" s="39"/>
@@ -5830,7 +5775,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5848,7 +5793,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5971,7 +5916,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5984,18 +5929,18 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="A11" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6034,646 +5979,516 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="1:23">
+        <v>113</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="66">
       <c r="A14" s="48">
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="49.5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="33">
       <c r="A15" s="48">
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="48"/>
-      <c r="B16" s="45"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="33">
+      <c r="A16" s="48">
+        <v>4</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="H16" s="45"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="69"/>
+      <c r="I16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B19" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D19" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G19" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="42" t="s">
+      <c r="H19" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I19" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J19" s="42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="48">
-        <v>1</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="33">
       <c r="A21" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="33">
-      <c r="A22" s="48">
-        <v>4</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>121</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="48"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="49"/>
       <c r="D22" s="45"/>
-      <c r="E22" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>99</v>
-      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="J22" s="69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="66">
-      <c r="A23" s="48">
-        <v>5</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="69" t="s">
-        <v>122</v>
-      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="132" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="134"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="48"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="46"/>
+      <c r="A24" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="128"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="42" t="s">
+      <c r="A25" s="48">
+        <v>1</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="45"/>
+      <c r="I25" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" ht="33">
+      <c r="A26" s="48">
         <v>2</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>0</v>
+      <c r="B26" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="45"/>
+      <c r="I26" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="69" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="48">
-        <v>1</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>130</v>
-      </c>
+      <c r="A27" s="48"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="49"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>71</v>
-      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="46"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="48">
+      <c r="A28" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="134"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="45"/>
-      <c r="I28" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="46"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="48">
-        <v>3</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="45"/>
-      <c r="I29" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>131</v>
+      <c r="B29" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="33">
       <c r="A30" s="48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="66">
       <c r="A31" s="48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="45" t="s">
-        <v>123</v>
-      </c>
       <c r="G31" s="45" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="66">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="33">
       <c r="A32" s="48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J32" s="69" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="48"/>
-      <c r="B33" s="45"/>
+    <row r="33" spans="1:10" ht="33">
+      <c r="A33" s="48">
+        <v>4</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>119</v>
+      </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
+      <c r="E33" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="45" t="s">
+        <v>118</v>
+      </c>
       <c r="H33" s="45"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="69"/>
+      <c r="I33" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="69" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="127"/>
-      <c r="F34" s="127"/>
-      <c r="G34" s="127"/>
-      <c r="H34" s="127"/>
-      <c r="I34" s="127"/>
-      <c r="J34" s="128"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="69"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="33">
-      <c r="A36" s="48">
-        <v>1</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="45"/>
-      <c r="I36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="48">
-        <v>2</v>
-      </c>
-      <c r="B37" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="H37" s="45"/>
-      <c r="I37" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="48">
-        <v>3</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="46"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="48">
-        <v>4</v>
-      </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="69"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="48">
-        <v>5</v>
-      </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="69"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="48">
-        <v>6</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="69"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A28:J28"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:J18"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>角色維護</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>最大處理人數 -  3000人
 concurrent數 1500人 - 3秒以內</t>
     <phoneticPr fontId="2"/>
@@ -682,6 +678,10 @@
   <si>
     <t>APF0502_Permission</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可顯示功能清單查詢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2729,8 +2729,8 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>52</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>51</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4233,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4269,10 +4269,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
@@ -4281,24 +4281,24 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4618,8 +4618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="97" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B6" s="98"/>
       <c r="C6" s="98"/>
@@ -4710,14 +4710,14 @@
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
       <c r="D8" s="91"/>
       <c r="E8" s="91"/>
       <c r="F8" s="81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="81"/>
       <c r="H8" s="81"/>
@@ -4746,14 +4746,14 @@
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
       <c r="A10" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="91"/>
       <c r="F10" s="81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G10" s="81"/>
       <c r="H10" s="81"/>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
       <c r="A12" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
       <c r="A14" s="94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
@@ -4848,7 +4848,7 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" s="91"/>
       <c r="C16" s="91"/>
@@ -5003,7 +5003,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:J35"/>
     </sheetView>
   </sheetViews>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
       <c r="A11" s="143" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="81"/>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
       <c r="A15" s="117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="118"/>
       <c r="C15" s="118"/>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
       <c r="A20" s="117" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="118"/>
       <c r="C20" s="118"/>
@@ -5325,10 +5325,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="101"/>
       <c r="E22" s="101"/>
@@ -5343,7 +5343,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="103"/>
       <c r="D23" s="104"/>
@@ -5359,7 +5359,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="106"/>
       <c r="D24" s="107"/>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
       <c r="A31" s="132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B31" s="133"/>
       <c r="C31" s="133"/>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="150" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="151"/>
       <c r="C32" s="151"/>
@@ -5916,7 +5916,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
       <c r="A11" s="132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="133"/>
       <c r="C11" s="133"/>
@@ -5979,25 +5979,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>110</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>111</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="66">
@@ -6005,25 +6005,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -6031,25 +6031,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="45" t="s">
-        <v>121</v>
-      </c>
       <c r="G15" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -6057,25 +6057,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F16" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6092,7 +6092,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="132" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="133"/>
       <c r="C18" s="133"/>
@@ -6141,22 +6141,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6165,25 +6165,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F21" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>79</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>80</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6200,7 +6200,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="133"/>
@@ -6249,22 +6249,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="46"/>
     </row>
@@ -6273,25 +6273,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6308,7 +6308,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="133"/>
       <c r="C28" s="133"/>
@@ -6357,25 +6357,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="66">
@@ -6383,25 +6383,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33">
@@ -6409,25 +6409,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="45" t="s">
-        <v>121</v>
-      </c>
       <c r="G32" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="33">
@@ -6435,25 +6435,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="45" t="s">
         <v>117</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>118</v>
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:10">

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -167,7 +167,495 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html型態及長度</t>
+    <t>功能 Use Case</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>效能需求</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>資料處理量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡述/目標</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務需求目的</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要參與者</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>支援性參與者</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>觸發事件Triggers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事先條件Preconditions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作功能描述</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Button說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面示意圖</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Global 參數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>初版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>處理流程說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>用途分類</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>說明</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>連結</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能簡述</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含SA功能描述、流程說明、其他</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Sheet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color indexed="63"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>名稱</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>檢核項目</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>預設值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大處理人數 -  3000人
+concurrent數 1500人 - 3秒以內</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>查詢人員</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>suda_work_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:無
+1.1 SESSION內容:
+1.2 成立條件:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IPO Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPO</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vw_emp_unique</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile.group_id = 權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User_RoleRelation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由3.2、3.3查詢合併後的群組識別值List</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RA006_APF0502_可顯示功能清單查詢 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color indexed="8"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>總表</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0502_Permission</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統管理模組、速達3代各模組</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>提供登入時查詢可使用的功能清單</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.使用者登入時由APF呼叫處理，提供該登入人員在各模組可使用的所有功能清單
+2.提供各模組備援登入時呼叫處理(維護使用)，提供該登入人員在特定模組可使用的所有功能清單</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Framework底層功能
+1.提供可處理資料範圍API - Function
+2.多型化Function，提供2種傳入參數機制
+3.由APF呼叫並提供人員可顯示功能清單資訊
+4.其餘模組呼叫則做為系統人員維護處理之用</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>畫面_APF0502_Permission</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF登入或各模組登入測試畫面時。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0502_Permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1 取得預設角色可使用功能清單及其權限</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.2 取得職稱角色群組識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.3 取得自訂角色群組識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4.4 查詢可使用功能清單</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Core_Role</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rid</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(3)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能識別值</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>action_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限分類(CRUDO)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_permission</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller_id</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>預設角色之Rid</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>module_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>選擇性參數，當各模組登入測試畫面時使用
+apf_menu_node.module_id = 模組代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>C = Create, R = Read, U = Update, D = Delete, O = Output</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>權限職稱代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>模組代號</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>使用者識別值</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">APF0502_Permission
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查時機：呼叫API時</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0502_Permission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>APF0502_Permission</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>可顯示功能清單查詢</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI控制項代號</t>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI控制項型態及長度</t>
     <rPh sb="2" eb="3">
       <t>カタ</t>
     </rPh>
@@ -186,502 +674,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>html代號</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>功能 Use Case</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>效能需求</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>資料處理量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡述/目標</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務需求目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要參與者</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>支援性參與者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>觸發事件Triggers</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事先條件Preconditions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Global 參數</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入/輸出</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>初版</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>處理流程說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>用途分類</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>說明</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>連結</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能簡述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含SA功能描述、流程說明、其他</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>回總表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Sheet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="63"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>名稱</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>可輸入長度</t>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オヨブチョウド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>預設值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大處理人數 -  3000人
-concurrent數 1500人 - 3秒以內</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>查詢人員</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IPO Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPO</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>vw_emp_unique</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_roleprofile.group_id = 權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>由3.2、3.3查詢合併後的群組識別值List</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RA006_APF0502_可顯示功能清單查詢 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color indexed="8"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>總表</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0502_Permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統管理模組、速達3代各模組</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>提供登入時查詢可使用的功能清單</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.使用者登入時由APF呼叫處理，提供該登入人員在各模組可使用的所有功能清單
-2.提供各模組備援登入時呼叫處理(維護使用)，提供該登入人員在特定模組可使用的所有功能清單</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Framework底層功能
-1.提供可處理資料範圍API - Function
-2.多型化Function，提供2種傳入參數機制
-3.由APF呼叫並提供人員可顯示功能清單資訊
-4.其餘模組呼叫則做為系統人員維護處理之用</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面_APF0502_Permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF登入或各模組登入測試畫面時。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1 取得預設角色可使用功能清單及其權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.2 取得職稱角色群組識別值(Rid)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.3 取得自訂角色群組識別值(Rid)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>4.4 查詢可使用功能清單</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(3)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>action_type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限分類(CRUDO)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_permission</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>controller_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設角色之Rid</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>module_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>模組代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>選擇性參數，當各模組登入測試畫面時使用
-apf_menu_node.module_id = 模組代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>C = Create, R = Read, U = Update, D = Delete, O = Output</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>模組代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0502_Permission
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>可顯示功能清單查詢</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>輸入/輸出/必填</t>
   </si>
 </sst>
 </file>
@@ -1387,6 +1380,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1399,24 +1437,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1426,12 +1446,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1442,31 +1456,172 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1495,9 +1650,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1509,165 +1661,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3372,7 +3365,7 @@
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="57150"/>
-          <a:ext cx="12296775" cy="523875"/>
+          <a:ext cx="12963525" cy="523875"/>
           <a:chOff x="0" y="57150"/>
           <a:chExt cx="11744325" cy="514350"/>
         </a:xfrm>
@@ -4233,7 +4226,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4241,64 +4234,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4482,10 +4475,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41564</v>
@@ -4618,7 +4611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
@@ -4632,17 +4625,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4659,250 +4652,243 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
+    </row>
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="96"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="99"/>
-    </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="81" t="s">
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="99" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+    </row>
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A15" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="88"/>
-      <c r="L15" s="89"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="96"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="A16" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="98"/>
     </row>
     <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="80" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="82"/>
+      <c r="A17" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="84"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="84"/>
-      <c r="E53" s="84"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="85"/>
+      <c r="A53" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+      <c r="G53" s="93"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="93"/>
+      <c r="J53" s="93"/>
+      <c r="K53" s="93"/>
+      <c r="L53" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4919,6 +4905,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5034,8 +5027,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="130" t="s">
-        <v>55</v>
+      <c r="K1" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5055,7 +5048,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5068,7 +5061,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5083,352 +5076,352 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="99"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="136"/>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="138"/>
-      <c r="J7" s="139"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="131"/>
+      <c r="F7" s="131"/>
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="136"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="133"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="143" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="A11" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="135" t="s">
+      <c r="A14" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="117" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
+      <c r="A15" s="142" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="143"/>
+      <c r="C15" s="143"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="C16" s="145" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="125"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="126"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="145"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="119"/>
+      <c r="A20" s="142" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="121"/>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="145" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="102"/>
+        <v>126</v>
+      </c>
+      <c r="C22" s="154" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="155"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+        <v>124</v>
+      </c>
+      <c r="C23" s="157"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="159"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+        <v>125</v>
+      </c>
+      <c r="C24" s="160"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="162"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="104"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="108"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="104"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="111"/>
+      <c r="A27" s="138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="163"/>
+      <c r="C27" s="163"/>
+      <c r="D27" s="163"/>
+      <c r="E27" s="163"/>
+      <c r="F27" s="163"/>
+      <c r="G27" s="163"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="163"/>
+      <c r="J27" s="164"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="D28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="E28" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="58" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="166"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="166"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5437,180 +5430,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="104"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="133"/>
-      <c r="J31" s="134"/>
+      <c r="A31" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="150" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="A32" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="110"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="111"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="154"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="155"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="114"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="155"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="114"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="156"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-      <c r="H35" s="157"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="165"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="166"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="121"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="121"/>
+      <c r="I36" s="121"/>
+      <c r="J36" s="122"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="162" t="s">
+      <c r="B37" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="146" t="s">
+      <c r="C37" s="119"/>
+      <c r="D37" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="159"/>
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="160"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="160"/>
-      <c r="J38" s="161"/>
+      <c r="A38" s="105"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="106"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="102"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="159"/>
-      <c r="B41" s="160"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="160"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="161"/>
+      <c r="A41" s="105"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="102"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5633,14 +5626,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="114"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5649,27 +5642,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5686,16 +5679,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5717,8 +5710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5726,12 +5719,12 @@
     <col min="1" max="1" width="4.25" style="41" customWidth="1"/>
     <col min="2" max="2" width="19" style="41" customWidth="1"/>
     <col min="3" max="3" width="17.375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="41" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="41" customWidth="1"/>
     <col min="6" max="6" width="14.375" style="41" customWidth="1"/>
     <col min="7" max="7" width="13" style="41" customWidth="1"/>
     <col min="8" max="8" width="9.625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="41" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.25" style="41" customWidth="1"/>
     <col min="10" max="10" width="34.125" style="41" customWidth="1"/>
     <col min="11" max="11" width="7.5" style="41" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="41"/>
@@ -5748,8 +5741,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="130" t="s">
-        <v>55</v>
+      <c r="K1" s="124" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5775,7 +5768,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="131"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5793,7 +5786,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="131"/>
+      <c r="K3" s="125"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5838,7 +5831,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="167" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="168"/>
       <c r="C6" s="168"/>
@@ -5867,7 +5860,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5879,10 +5872,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5916,7 +5909,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="167" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="168"/>
@@ -5929,31 +5922,31 @@
       <c r="J10" s="169"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="132" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="133"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="134"/>
+      <c r="A11" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="127"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5965,10 +5958,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5979,25 +5972,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="66">
@@ -6005,25 +5998,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -6031,25 +6024,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -6057,25 +6050,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6091,18 +6084,18 @@
       <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="133"/>
-      <c r="J18" s="134"/>
+      <c r="A18" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
@@ -6112,10 +6105,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>22</v>
@@ -6127,10 +6120,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J19" s="42" t="s">
         <v>0</v>
@@ -6141,22 +6134,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6165,25 +6158,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6199,18 +6192,18 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="133"/>
-      <c r="J23" s="134"/>
+      <c r="A23" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
@@ -6220,10 +6213,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>22</v>
@@ -6235,10 +6228,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>0</v>
@@ -6249,22 +6242,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J25" s="46"/>
     </row>
@@ -6273,25 +6266,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6307,18 +6300,18 @@
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="133"/>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="133"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="133"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="133"/>
-      <c r="J28" s="134"/>
+      <c r="A28" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">
@@ -6328,10 +6321,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>22</v>
@@ -6343,10 +6336,10 @@
         <v>16</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="J29" s="42" t="s">
         <v>0</v>
@@ -6357,25 +6350,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F30" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="45" t="s">
         <v>77</v>
-      </c>
-      <c r="G30" s="45" t="s">
-        <v>81</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="66">
@@ -6383,25 +6376,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33">
@@ -6409,25 +6402,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="33">
@@ -6435,25 +6428,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:10">

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -203,10 +203,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>操作功能描述</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Button說明</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -338,7 +334,7 @@
   </si>
   <si>
     <t>suda_work_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>無</t>
@@ -368,7 +364,7 @@
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -399,7 +395,7 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Sid</t>
@@ -419,7 +415,7 @@
   </si>
   <si>
     <t>varchar(10)</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Core_User</t>
@@ -483,14 +479,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Framework底層功能
-1.提供可處理資料範圍API - Function
-2.多型化Function，提供2種傳入參數機制
-3.由APF呼叫並提供人員可顯示功能清單資訊
-4.其餘模組呼叫則做為系統人員維護處理之用</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>畫面_APF0502_Permission</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -524,15 +512,15 @@
   </si>
   <si>
     <t>群組識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>Rid</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>apf_menu_node</t>
@@ -552,7 +540,7 @@
   </si>
   <si>
     <t>功能識別值</t>
-    <phoneticPr fontId="27" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
     <t>action_type</t>
@@ -572,7 +560,7 @@
   </si>
   <si>
     <t>controller_id</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
@@ -681,7 +669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -834,11 +822,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1182,7 +1165,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1320,7 +1303,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1380,13 +1363,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,27 +1423,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,41 +1432,143 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1470,22 +1579,7 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1515,6 +1609,15 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,138 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2716,13 +2687,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>51</xdr:row>
+          <xdr:row>49</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2768,13 +2739,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>53</xdr:row>
+          <xdr:row>51</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>64</xdr:row>
+          <xdr:row>62</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4226,7 +4197,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
       <c r="A1" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -4234,64 +4205,64 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>46</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="D3" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>66</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
       <c r="A5" s="72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
       <c r="A6" s="72"/>
       <c r="B6" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4475,10 +4446,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="70">
         <v>41564</v>
@@ -4609,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4625,17 +4596,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="74"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4652,251 +4623,224 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="A6" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
+      <c r="A10" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="99" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="A12" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="99" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A15" s="75" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="96"/>
-    </row>
-    <row r="16" spans="1:13" s="19" customFormat="1" ht="99.75" customHeight="1">
-      <c r="A16" s="97" t="s">
+      <c r="A14" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="98"/>
-    </row>
-    <row r="17" spans="1:12" ht="16.5">
-      <c r="A17" s="75" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="93"/>
-      <c r="K53" s="93"/>
-      <c r="L53" s="94"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="21">
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A53:L53"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A51:L51"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A16:L16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -4905,13 +4849,6 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4932,13 +4869,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>17</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
@@ -4957,13 +4894,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
@@ -5027,8 +4964,8 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="124" t="s">
-        <v>52</v>
+      <c r="K1" s="126" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5048,7 +4985,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="127"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -5061,7 +4998,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="127"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5076,352 +5013,352 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="129" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="A5" s="131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="130"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="A7" s="132"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="135"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="130"/>
-      <c r="B8" s="131"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+      <c r="A8" s="132"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="134"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="137" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="139" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="137" t="s">
+      <c r="A13" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="142" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="144"/>
+      <c r="A15" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="114"/>
+      <c r="J15" s="115"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+        <v>54</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="149"/>
-      <c r="G17" s="149"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="151"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="138" t="s">
+      <c r="A19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="144"/>
+      <c r="A20" s="113" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="115"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="118"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
         <v>1</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="154" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="155"/>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+        <v>124</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
         <v>2</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="157"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="158"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="158"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
+        <v>122</v>
+      </c>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="101"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
         <v>3</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="160"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
+        <v>123</v>
+      </c>
+      <c r="C24" s="102"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="103"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="112"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="103"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="108"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="104"/>
+      <c r="A26" s="110"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="112"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="138" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="163"/>
-      <c r="G27" s="163"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="163"/>
-      <c r="J27" s="164"/>
+      <c r="A27" s="105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="106"/>
+      <c r="C27" s="106"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="C28" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="E28" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="165" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="166"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="109"/>
+      <c r="J28" s="109"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5430,180 +5367,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="104"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="112"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="128"/>
+      <c r="A31" s="128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="130"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="110"/>
-      <c r="C32" s="110"/>
-      <c r="D32" s="110"/>
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
+      <c r="A32" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="112"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="114"/>
+      <c r="A33" s="149"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="114"/>
+      <c r="A34" s="149"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="A35" s="152"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="154"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="121"/>
-      <c r="C36" s="121"/>
-      <c r="D36" s="121"/>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="121"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="122"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="118" t="s">
+      <c r="B37" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="100" t="s">
+      <c r="C37" s="159"/>
+      <c r="D37" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="82"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="105"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="144"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="102"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="143"/>
+      <c r="J40" s="144"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="105"/>
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="157"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="102"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="143"/>
+      <c r="J42" s="144"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5626,14 +5563,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="82"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5642,27 +5579,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5679,16 +5616,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5710,7 +5647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5741,8 +5678,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="124" t="s">
-        <v>52</v>
+      <c r="K1" s="126" t="s">
+        <v>51</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5768,7 +5705,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="125"/>
+      <c r="K2" s="127"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5786,7 +5723,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="125"/>
+      <c r="K3" s="127"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5830,18 +5767,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="A6" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="165"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5860,7 +5797,7 @@
         <v>14</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>22</v>
@@ -5872,10 +5809,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5908,45 +5845,45 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="169"/>
+      <c r="A10" s="163" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="A11" s="128" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="129"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="42" t="s">
         <v>131</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>133</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>22</v>
@@ -5958,10 +5895,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5972,25 +5909,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="45" t="s">
-        <v>105</v>
-      </c>
       <c r="G13" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="66">
@@ -5998,25 +5935,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J14" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -6024,25 +5961,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -6050,25 +5987,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J16" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6084,18 +6021,18 @@
       <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="126" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="A18" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
@@ -6105,10 +6042,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>22</v>
@@ -6120,10 +6057,10 @@
         <v>16</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J19" s="42" t="s">
         <v>0</v>
@@ -6134,22 +6071,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6158,25 +6095,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>74</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>75</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6192,18 +6129,18 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="128"/>
+      <c r="A23" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="129"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
@@ -6213,10 +6150,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>22</v>
@@ -6228,10 +6165,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>0</v>
@@ -6242,22 +6179,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J25" s="46"/>
     </row>
@@ -6266,25 +6203,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J26" s="69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6300,18 +6237,18 @@
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="128"/>
+      <c r="A28" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="129"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="130"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">
@@ -6321,10 +6258,10 @@
         <v>13</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>22</v>
@@ -6336,10 +6273,10 @@
         <v>16</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J29" s="42" t="s">
         <v>0</v>
@@ -6350,25 +6287,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J30" s="69" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="66">
@@ -6376,25 +6313,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J31" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33">
@@ -6402,25 +6339,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="33">
@@ -6428,25 +6365,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J33" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:10">

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -1363,6 +1363,51 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,24 +1420,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,35 +1429,170 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1459,9 +1621,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1473,165 +1632,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4582,8 +4582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4598,15 +4598,15 @@
       <c r="A1" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="88" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="74"/>
+      <c r="M2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="74"/>
+      <c r="M3" s="89"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4623,218 +4623,211 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="92"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="77" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="79"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="81" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="82"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="81" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="82"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="89" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="84"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="89" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="79"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="84"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="90" t="s">
+      <c r="A14" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="82"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="82"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="B51" s="84"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="84"/>
-      <c r="E51" s="84"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="85"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="93"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
+      <c r="L51" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4849,6 +4842,13 @@
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4964,7 +4964,7 @@
       <c r="H1" s="47"/>
       <c r="I1" s="47"/>
       <c r="J1" s="47"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="120" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="50"/>
@@ -4985,7 +4985,7 @@
       <c r="H2" s="47"/>
       <c r="I2" s="47"/>
       <c r="J2" s="47"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:17" s="51" customFormat="1">
       <c r="A3" s="47"/>
@@ -4998,7 +4998,7 @@
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
       <c r="J3" s="47"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:17" s="51" customFormat="1">
       <c r="A4" s="47"/>
@@ -5013,152 +5013,152 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="93"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="87"/>
     </row>
     <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="132"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="136"/>
-      <c r="B9" s="137"/>
-      <c r="C9" s="137"/>
-      <c r="D9" s="137"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="139" t="s">
+      <c r="A11" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="82"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="82"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="74"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A16" s="55" t="s">
@@ -5167,70 +5167,70 @@
       <c r="B16" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="120"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="122"/>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="A18" s="147"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="149"/>
     </row>
     <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
     </row>
     <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="A21" s="55" t="s">
@@ -5239,16 +5239,16 @@
       <c r="B21" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="118"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="143"/>
     </row>
     <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
       <c r="A22" s="55">
@@ -5257,16 +5257,16 @@
       <c r="B22" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="150" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
       <c r="A23" s="55">
@@ -5275,14 +5275,14 @@
       <c r="B23" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="101"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="154"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:12" s="52" customFormat="1">
       <c r="A24" s="55">
@@ -5291,52 +5291,52 @@
       <c r="B24" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="104"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="112"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="100"/>
     </row>
     <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="111"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="112"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="100"/>
     </row>
     <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="105" t="s">
+      <c r="A27" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="106"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="106"/>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="107"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="159"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
@@ -5351,14 +5351,14 @@
       <c r="D28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="108" t="s">
+      <c r="E28" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="52"/>
       <c r="L28" s="52"/>
     </row>
@@ -5367,180 +5367,180 @@
       <c r="B29" s="59"/>
       <c r="C29" s="60"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
     </row>
     <row r="30" spans="1:12" s="52" customFormat="1">
       <c r="A30" s="62"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="112"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="100"/>
     </row>
     <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="130"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
     </row>
     <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="107"/>
     </row>
     <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="149"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
     </row>
     <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="149"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="150"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
     </row>
     <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="152"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="154"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="113"/>
     </row>
     <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="118"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="158" t="s">
+      <c r="B37" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="159"/>
-      <c r="D37" s="142" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="82"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
     </row>
     <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="63"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="112"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="144"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="98"/>
     </row>
     <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="63"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="144"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="98"/>
     </row>
     <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="103"/>
     </row>
     <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="63"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="112"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="143"/>
-      <c r="J42" s="144"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="64" t="s">
@@ -5563,14 +5563,14 @@
       <c r="B44" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="81"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="82"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="63">
@@ -5579,27 +5579,27 @@
       <c r="B45" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+      <c r="H45" s="119"/>
+      <c r="I45" s="119"/>
+      <c r="J45" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="C22:J24"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A17:J18"/>
     <mergeCell ref="C45:J45"/>
     <mergeCell ref="C44:J44"/>
     <mergeCell ref="K1:K3"/>
@@ -5616,16 +5616,16 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="E29:J29"/>
     <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="A32:J35"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -5678,7 +5678,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="126" t="s">
+      <c r="K1" s="120" t="s">
         <v>51</v>
       </c>
       <c r="L1" s="39"/>
@@ -5705,7 +5705,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="127"/>
+      <c r="K2" s="121"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5723,7 +5723,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="127"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5859,18 +5859,18 @@
       <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6021,18 +6021,18 @@
       <c r="J17" s="69"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="130"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
@@ -6129,18 +6129,18 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="128" t="s">
+      <c r="A23" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="130"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
@@ -6237,18 +6237,18 @@
       <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="122" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="130"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -9,26 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="43" r:id="rId4"/>
-    <sheet name="畫面_APF0502_Permission" sheetId="7" r:id="rId5"/>
+    <sheet name="IPO" sheetId="44" r:id="rId4"/>
+    <sheet name="API_APF0502_Permission" sheetId="45" r:id="rId5"/>
     <sheet name="欄位_APF0502_Permission" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">API_APF0502_Permission!$A$1:$J$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0502_Permission!$A$1:$J$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0502_Permission!$A$1:$J$23</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">API_APF0502_Permission!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0502_Permission!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0502_Permission!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0502_Permission!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">API_APF0502_Permission!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -55,46 +55,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>參考資料說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>共通元件</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特殊說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>應用時機</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>內容說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事後檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>前端檢核</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>後端檢核</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>項目名稱</t>
@@ -128,10 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -203,34 +159,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>Button說明</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>畫面示意圖</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>控制項名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>call methods</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>重要參數</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>主要處理內容</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Global 參數</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -304,18 +232,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>項目名稱</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>檢核項目</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>預設值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -334,17 +250,7 @@
   </si>
   <si>
     <t>suda_work_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>無</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1.前畫面:無
-1.1 SESSION內容:
-1.2 成立條件:</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>IPO Model</t>
@@ -355,16 +261,12 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>若查無符合的資料，則出現錯誤訊息，訊息內容請參考APF訊息表-APF_NO 9。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>I</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>varchar2(5)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
@@ -395,7 +297,7 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Sid</t>
@@ -415,7 +317,7 @@
   </si>
   <si>
     <t>varchar(10)</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>Core_User</t>
@@ -512,15 +414,15 @@
   </si>
   <si>
     <t>群組識別值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>Rid</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>apf_menu_node</t>
@@ -540,7 +442,7 @@
   </si>
   <si>
     <t>功能識別值</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
     <t>action_type</t>
@@ -560,7 +462,7 @@
   </si>
   <si>
     <t>controller_id</t>
-    <phoneticPr fontId="25" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
@@ -590,42 +492,6 @@
   <si>
     <t>C = Create, R = Read, U = Update, D = Delete, O = Output</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限職稱代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>模組代號</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>使用者識別值</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">APF0502_Permission
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查時機：呼叫API時</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>APF0502_Permission</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>可顯示功能清單查詢</t>
@@ -664,12 +530,94 @@
   <si>
     <t>輸入/輸出/必填</t>
   </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回總表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>事前檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.前畫面:無
+1.1 SESSION內容:
+1.2 成立條件:</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事後檢核</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Function說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>控制項名稱</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>call methods</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>重要參數</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>主要處理內容</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>應用時機</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>內容說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>參考資料說明</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>共通元件</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GetMenuPermissionByCondition</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sid、suda_work_id、module_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取得人員所有功能清單的權限。</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -824,13 +772,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <name val="標楷體"/>
@@ -896,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1066,15 +1007,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="double">
@@ -1165,7 +1097,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1242,31 +1174,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1297,71 +1229,89 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1369,7 +1319,28 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1378,27 +1349,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1408,29 +1358,53 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1441,49 +1415,16 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,138 +1441,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2794,41 +2603,41 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="1627" name="群組 1"/>
+        <xdr:cNvPr id="2" name="群組 2"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="66675"/>
-          <a:ext cx="10277475" cy="590550"/>
+          <a:off x="0" y="1428750"/>
+          <a:ext cx="9906000" cy="512989"/>
           <a:chOff x="1" y="66675"/>
           <a:chExt cx="9715500" cy="438150"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1049" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="9785" y="123825"/>
-            <a:ext cx="890343" cy="381000"/>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2853,7 +2662,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2868,7 +2677,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2879,7 +2688,7 @@
               <a:t>Online</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2893,15 +2702,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1050" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="763152" y="123825"/>
-            <a:ext cx="2348157" cy="381000"/>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -2926,7 +2735,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2941,24 +2750,28 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
               </a:rPr>
               <a:t>APF </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
               </a:rPr>
               <a:t>使用者管理</a:t>
             </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2970,15 +2783,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1051" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="3003685" y="123825"/>
-            <a:ext cx="3052604" cy="381000"/>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3003,7 +2816,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3018,24 +2831,28 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>APF0502_</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>可顯示功能清單查詢</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF0101 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>角色維護</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3047,15 +2864,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1052" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="5743202" y="123825"/>
-            <a:ext cx="2406861" cy="381000"/>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3080,7 +2897,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3095,44 +2912,29 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>畫面</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
-                <a:effectLst/>
-                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>_APF0502_Permission</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-            </a:endParaRPr>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>功能簡述</a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1053" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="8013087" y="123825"/>
-            <a:ext cx="900127" cy="381000"/>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3157,7 +2959,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3172,7 +2974,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3198,15 +3000,15 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1054" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="8893646" y="123825"/>
-            <a:ext cx="821855" cy="381000"/>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3231,7 +3033,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3246,7 +3048,7 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -3254,7 +3056,7 @@
                 <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="Times New Roman"/>
               </a:rPr>
-              <a:t>20131018</a:t>
+              <a:t>20131003</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3274,7 +3076,576 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="1643" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>676275</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32769" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s32769"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>46264</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="群組 10"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19050" y="47625"/>
+          <a:ext cx="9906000" cy="522514"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9298" y="123825"/>
+            <a:ext cx="883227" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="762366" y="123825"/>
+            <a:ext cx="2352174" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3002974" y="123825"/>
+            <a:ext cx="3058756" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0501_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可處理資料範圍查詢</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5745627" y="123825"/>
+            <a:ext cx="2407956" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>IPO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>圖</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8014126" y="123825"/>
+            <a:ext cx="901822" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8897354" y="123825"/>
+            <a:ext cx="818147" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131113</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3312,6 +3683,520 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="群組 1"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="66675"/>
+          <a:ext cx="10277475" cy="590550"/>
+          <a:chOff x="1" y="66675"/>
+          <a:chExt cx="9715500" cy="438150"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="9785" y="123825"/>
+            <a:ext cx="890343" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>大項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>Online</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>作業</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="763152" y="123825"/>
+            <a:ext cx="2348157" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>中項目</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>使用者管理</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3003685" y="123825"/>
+            <a:ext cx="3052604" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>細項</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>APF0502_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>可顯示功能清單查詢</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5743202" y="123825"/>
+            <a:ext cx="2406861" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>標題</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>API_APF0502_Permission</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8013087" y="123825"/>
+            <a:ext cx="900127" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>製作人</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體"/>
+                <a:ea typeface="標楷體"/>
+              </a:rPr>
+              <a:t>陳慕霖</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體"/>
+              <a:ea typeface="標楷體"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="8893646" y="123825"/>
+            <a:ext cx="821855" cy="381000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            </a:solidFill>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              </a:rPr>
+              <a:t>製作日</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20131017</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="1" y="66675"/>
+            <a:ext cx="9715500" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="57150" cmpd="thinThick">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:noFill/>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4196,73 +5081,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="A1" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="33" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>60</v>
+      <c r="A5" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="35" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="72"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="34" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -4424,13 +5309,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="6"/>
@@ -4446,12 +5331,12 @@
         <v>1</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="70">
+        <v>23</v>
+      </c>
+      <c r="D6" s="66">
         <v>41564</v>
       </c>
       <c r="E6" s="12"/>
@@ -4582,7 +5467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -4596,17 +5481,17 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" thickTop="1">
       <c r="A1" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="M1" s="71" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="89"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="89"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -4623,211 +5508,216 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="77"/>
+      <c r="A5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="A6" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="84" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
+      <c r="A10" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A12" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="80"/>
+    </row>
+    <row r="15" spans="1:13" ht="16.5">
+      <c r="A15" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="82" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="80"/>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-    </row>
-    <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
-    </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
-    </row>
-    <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-    </row>
-    <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="84"/>
-    </row>
-    <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="83"/>
-      <c r="L13" s="84"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
-      <c r="I51" s="93"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="94"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="82"/>
+      <c r="I51" s="82"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+      <c r="L51" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -4844,11 +5734,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -4916,31 +5801,81 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="16:16" ht="14.25" thickTop="1">
+      <c r="P1" s="71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="16:16">
+      <c r="P2" s="72"/>
+    </row>
+    <row r="3" spans="16:16">
+      <c r="P3" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:P3"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P1" location="總表!A1" display="回總表"/>
+    <hyperlink ref="P1:P3" location="總表!A1" display="回總表"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="32769" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>45</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="32769" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:J35"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="50" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="52" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="51" customWidth="1"/>
     <col min="3" max="3" width="29.375" style="50" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="50" customWidth="1"/>
     <col min="5" max="5" width="13.75" style="50" customWidth="1"/>
@@ -4953,19 +5888,19 @@
     <col min="12" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="51" customFormat="1" ht="17.25" thickTop="1">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="120" t="s">
-        <v>51</v>
+    <row r="1" spans="1:17" s="67" customFormat="1" ht="17.25" thickTop="1">
+      <c r="A1" s="68"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="103" t="s">
+        <v>105</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -4974,660 +5909,345 @@
       <c r="P1" s="50"/>
       <c r="Q1" s="50"/>
     </row>
-    <row r="2" spans="1:17" s="51" customFormat="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:17" s="51" customFormat="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="121"/>
-    </row>
-    <row r="4" spans="1:17" s="51" customFormat="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:17" s="51" customFormat="1">
-      <c r="A5" s="125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="87"/>
-    </row>
-    <row r="7" spans="1:17" s="52" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="126"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:17" s="52" customFormat="1">
-      <c r="A8" s="126"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:17" s="52" customFormat="1" ht="106.5" customHeight="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+    <row r="2" spans="1:17" s="67" customFormat="1">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="104"/>
+    </row>
+    <row r="3" spans="1:17" s="67" customFormat="1">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="104"/>
+    </row>
+    <row r="4" spans="1:17" s="67" customFormat="1">
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+    </row>
+    <row r="5" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" s="52" customFormat="1" ht="51" customHeight="1">
+      <c r="A6" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
+    </row>
+    <row r="7" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="1:17" s="52" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="96"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-    </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" ht="51" customHeight="1">
-      <c r="A11" s="133" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
-    </row>
-    <row r="12" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="125" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
-    </row>
-    <row r="13" spans="1:17" s="54" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="133" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="74"/>
-    </row>
-    <row r="14" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A14" s="125" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="A10" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:17" s="51" customFormat="1" ht="69" customHeight="1">
+      <c r="A11" s="56">
+        <v>1</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="1:17" s="51" customFormat="1">
+      <c r="A12" s="58"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="120"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="1:17" s="52" customFormat="1">
+      <c r="A14" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="118"/>
+      <c r="D14" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="138" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="140"/>
-    </row>
-    <row r="16" spans="1:17" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A16" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="143"/>
-    </row>
-    <row r="17" spans="1:12" s="52" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A17" s="144" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-    </row>
-    <row r="18" spans="1:12" s="52" customFormat="1">
-      <c r="A18" s="147"/>
-      <c r="B18" s="148"/>
-      <c r="C18" s="148"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
-    </row>
-    <row r="19" spans="1:12" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A19" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="135"/>
-      <c r="C19" s="135"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-    </row>
-    <row r="20" spans="1:12" s="52" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A20" s="138" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="140"/>
-    </row>
-    <row r="21" spans="1:12" s="52" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A21" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="143"/>
-    </row>
-    <row r="22" spans="1:12" s="52" customFormat="1" ht="39" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A15" s="114"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
+    </row>
+    <row r="16" spans="1:17" s="51" customFormat="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
+    </row>
+    <row r="17" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="112"/>
+    </row>
+    <row r="18" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="114"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
+    </row>
+    <row r="19" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="112"/>
+    </row>
+    <row r="20" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A21" s="59">
         <v>1</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="150" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-    </row>
-    <row r="23" spans="1:12" s="52" customFormat="1" ht="42" customHeight="1">
-      <c r="A23" s="55">
+      <c r="B21" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
+    </row>
+    <row r="22" spans="1:10" s="51" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A22" s="59">
         <v>2</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="154"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="154"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="154"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="155"/>
-    </row>
-    <row r="24" spans="1:12" s="52" customFormat="1">
-      <c r="A24" s="55">
-        <v>3</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="156"/>
-      <c r="D24" s="157"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="157"/>
-      <c r="H24" s="157"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
-    </row>
-    <row r="25" spans="1:12" s="52" customFormat="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="100"/>
-    </row>
-    <row r="26" spans="1:12" s="52" customFormat="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="100"/>
-    </row>
-    <row r="27" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="134" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
-    </row>
-    <row r="28" spans="1:12" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" s="161" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-    </row>
-    <row r="29" spans="1:12" s="52" customFormat="1" ht="33" customHeight="1">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-    </row>
-    <row r="30" spans="1:12" s="52" customFormat="1">
-      <c r="A30" s="62"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="100"/>
-    </row>
-    <row r="31" spans="1:12" s="52" customFormat="1">
-      <c r="A31" s="122" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-    </row>
-    <row r="32" spans="1:12" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="107"/>
-    </row>
-    <row r="33" spans="1:10" s="54" customFormat="1">
-      <c r="A33" s="108"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="110"/>
-    </row>
-    <row r="34" spans="1:10" s="54" customFormat="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="110"/>
-    </row>
-    <row r="35" spans="1:10" s="52" customFormat="1">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="113"/>
-    </row>
-    <row r="36" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A36" s="116" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="118"/>
-    </row>
-    <row r="37" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="74"/>
-    </row>
-    <row r="38" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="102"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="102"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
-    </row>
-    <row r="39" spans="1:10" s="54" customFormat="1" ht="15" customHeight="1">
-      <c r="A39" s="63"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="98"/>
-    </row>
-    <row r="40" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="63"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="98"/>
-    </row>
-    <row r="41" spans="1:10" s="52" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="103"/>
-    </row>
-    <row r="42" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="63"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="98"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="67"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="63">
-        <v>1</v>
-      </c>
-      <c r="B44" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="74"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="63">
-        <v>2</v>
-      </c>
-      <c r="B45" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-      <c r="H45" s="119"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="119"/>
+      <c r="B22" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C22:J24"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A20:J20"/>
+  <mergeCells count="22">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:J19"/>
     <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
     <mergeCell ref="A15:J15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="A17:J18"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A12:J12"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J9"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="A32:J35"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A41:J41"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
   </mergeCells>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K1" location="總表!A1" display="回總表"/>
     <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
@@ -5678,8 +6298,8 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="120" t="s">
-        <v>51</v>
+      <c r="K1" s="103" t="s">
+        <v>33</v>
       </c>
       <c r="L1" s="39"/>
       <c r="M1" s="39"/>
@@ -5705,7 +6325,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="104"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -5723,7 +6343,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="121"/>
+      <c r="K3" s="104"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -5767,18 +6387,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="163" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="A6" s="122" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="123"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="124"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -5791,28 +6411,28 @@
         <v>2</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -5845,60 +6465,60 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="163" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
-    </row>
-    <row r="11" spans="1:23" s="52" customFormat="1">
-      <c r="A11" s="122" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
+      <c r="A10" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+    </row>
+    <row r="11" spans="1:23" s="51" customFormat="1">
+      <c r="A11" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -5909,25 +6529,25 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="66">
@@ -5935,25 +6555,25 @@
         <v>2</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="33">
@@ -5961,25 +6581,25 @@
         <v>3</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G15" s="45" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="33">
@@ -5987,25 +6607,25 @@
         <v>4</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G16" s="45" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H16" s="45"/>
       <c r="I16" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="69" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="J16" s="65" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6018,49 +6638,49 @@
       <c r="G17" s="45"/>
       <c r="H17" s="45"/>
       <c r="I17" s="43"/>
-      <c r="J17" s="69"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="122" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="A18" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F19" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G19" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J19" s="42" t="s">
         <v>0</v>
@@ -6071,22 +6691,22 @@
         <v>1</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="F20" s="45" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G20" s="45" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="H20" s="45"/>
       <c r="I20" s="43" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="J20" s="46"/>
     </row>
@@ -6095,25 +6715,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G21" s="45" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="69" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="J21" s="65" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6129,46 +6749,46 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="122" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
+      <c r="A23" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G24" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>0</v>
@@ -6179,22 +6799,22 @@
         <v>1</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="J25" s="46"/>
     </row>
@@ -6203,25 +6823,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="69" t="s">
-        <v>85</v>
+        <v>96</v>
+      </c>
+      <c r="J26" s="65" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6234,49 +6854,49 @@
       <c r="G27" s="45"/>
       <c r="H27" s="45"/>
       <c r="I27" s="43"/>
-      <c r="J27" s="69"/>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="122" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
+      <c r="A28" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="107"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G29" s="42" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J29" s="42" t="s">
         <v>0</v>
@@ -6287,25 +6907,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="69" t="s">
-        <v>86</v>
+        <v>43</v>
+      </c>
+      <c r="J30" s="65" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="66">
@@ -6313,25 +6933,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" s="69" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="J31" s="65" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33">
@@ -6339,25 +6959,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>115</v>
+        <v>45</v>
+      </c>
+      <c r="J32" s="65" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="33">
@@ -6365,25 +6985,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" s="69" t="s">
-        <v>121</v>
+        <v>45</v>
+      </c>
+      <c r="J33" s="65" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6396,7 +7016,7 @@
       <c r="G34" s="45"/>
       <c r="H34" s="45"/>
       <c r="I34" s="43"/>
-      <c r="J34" s="69"/>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="48"/>
@@ -6408,7 +7028,7 @@
       <c r="G35" s="45"/>
       <c r="H35" s="45"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="69"/>
+      <c r="J35" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -1289,6 +1289,42 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,24 +1337,9 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,35 +1349,80 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1367,30 +1433,6 @@
     <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1399,48 +1441,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -3394,24 +3394,24 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>APF0501_</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+              <a:t>APF0502_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100" b="0" i="0" baseline="0">
                 <a:effectLst/>
                 <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
                 <a:cs typeface="+mn-cs"/>
               </a:rPr>
-              <a:t>可處理資料範圍查詢</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:t>可顯示功能清單查詢</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5467,7 +5467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -5483,15 +5483,15 @@
       <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="83" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="72"/>
+      <c r="M2" s="84"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="72"/>
+      <c r="M3" s="84"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5508,45 +5508,45 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="90"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="93"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="93"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="75" t="s">
         <v>14</v>
       </c>
@@ -5558,31 +5558,31 @@
       <c r="L7" s="77"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="79" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="80"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
       <c r="F9" s="75" t="s">
         <v>16</v>
       </c>
@@ -5594,32 +5594,32 @@
       <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="79" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="79"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="86" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="91" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="76"/>
@@ -5630,30 +5630,30 @@
       <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="80"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="86" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="91" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="76"/>
@@ -5664,60 +5664,55 @@
       <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="80"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="78"/>
+      <c r="L14" s="79"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="80"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="79"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="83"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -5734,6 +5729,11 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5804,22 +5804,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="83" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="72"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="72"/>
+      <c r="P3" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5899,7 +5899,7 @@
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="112" t="s">
         <v>105</v>
       </c>
       <c r="L1" s="50"/>
@@ -5920,7 +5920,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="104"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:17" s="67" customFormat="1">
       <c r="A3" s="68"/>
@@ -5933,7 +5933,7 @@
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
-      <c r="K3" s="104"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:17" s="67" customFormat="1">
       <c r="A4" s="68"/>
@@ -5948,7 +5948,7 @@
       <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="114" t="s">
         <v>106</v>
       </c>
       <c r="B5" s="76"/>
@@ -5962,21 +5962,21 @@
       <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="115" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="79"/>
     </row>
     <row r="7" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="114" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="76"/>
@@ -5990,32 +5990,32 @@
       <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A8" s="109" t="s">
+      <c r="A8" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="118"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="53" t="s">
@@ -6030,14 +6030,14 @@
       <c r="D10" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="103" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
     </row>
@@ -6052,118 +6052,118 @@
       <c r="D11" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="105" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="51" customFormat="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="101"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="B13" s="120"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1">
       <c r="A14" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="117" t="s">
+      <c r="B14" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="118"/>
-      <c r="D14" s="110" t="s">
+      <c r="C14" s="111"/>
+      <c r="D14" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" s="51" customFormat="1">
       <c r="A16" s="59"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="59"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="59"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="98"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="60" t="s">
@@ -6186,14 +6186,14 @@
       <c r="B21" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" s="51" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="59">
@@ -6202,14 +6202,14 @@
       <c r="B22" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
     </row>
     <row r="23" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="50"/>
@@ -6224,6 +6224,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="C21:J21"/>
@@ -6234,18 +6246,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="A18:J18"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -6298,7 +6298,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="112" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="39"/>
@@ -6325,7 +6325,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="104"/>
+      <c r="K2" s="113"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -6343,7 +6343,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="104"/>
+      <c r="K3" s="113"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -6479,18 +6479,18 @@
       <c r="J10" s="124"/>
     </row>
     <row r="11" spans="1:23" s="51" customFormat="1">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="119" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="107"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6641,18 +6641,18 @@
       <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="119" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="121"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
@@ -6749,18 +6749,18 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="121"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
@@ -6857,18 +6857,18 @@
       <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="105" t="s">
+      <c r="A28" s="119" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
-      <c r="J28" s="107"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="121"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">

--- a/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
+++ b/APF/RA006/RA006_APF0502_可顯示功能清單查詢.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="821" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="37" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -277,10 +277,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>apf_roleprofile</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Rid</t>
   </si>
   <si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>apf_roleprofile.group_id = 權限職稱代號</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>群組識別值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -333,10 +325,6 @@
   </si>
   <si>
     <t>Core_User_RoleRelation.Sid = 使用者識別值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>由3.2、3.3查詢合併後的群組識別值List</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -381,10 +369,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>畫面_APF0502_Permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>APF登入或各模組登入測試畫面時。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -393,10 +377,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>4.1 取得預設角色可使用功能清單及其權限</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>4.2 取得職稱角色群組識別值(Rid)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -409,10 +389,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Core_Role</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>群組識別值</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -433,10 +409,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(3)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -466,10 +438,6 @@
   </si>
   <si>
     <t>apf_menu_node.controller_id = apf_permission.controller_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設角色之Rid</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -601,15 +569,47 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>4.1 取得預設角色群組識別值(Rid)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile.group_id = 權限職稱代號</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_roleprofile = 0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>合併已查得的預設角色、職稱角色與自訂角色群組識別值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_APF0502_Permission</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>GetMenuPermissionByCondition</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>取得人員所有功能清單的權限。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Sid、suda_work_id、module_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>取得人員所有功能清單的權限。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1097,7 +1097,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1283,38 +1283,74 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1325,48 +1361,63 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1383,54 +1434,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5068,7 +5071,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5081,12 +5084,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="30" t="s">
@@ -5129,25 +5132,25 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="71" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C5" s="34"/>
-      <c r="D5" s="35" t="s">
-        <v>66</v>
+      <c r="D5" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
@@ -5216,7 +5219,7 @@
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D4" location="IPO!A1" display="View"/>
-    <hyperlink ref="D5" location="畫面_APF0502_Permission!A1" display="View"/>
+    <hyperlink ref="D5" location="API_APF0502_Permission!A1" display="View"/>
     <hyperlink ref="D6" location="欄位_APF0502_Permission!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5467,7 +5470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -5483,15 +5486,15 @@
       <c r="A1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="72" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="84"/>
+      <c r="M2" s="73"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="84"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" s="18" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="7"/>
@@ -5508,211 +5511,216 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="93"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
+      <c r="A6" s="92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="94"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="75" t="s">
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="1:13" s="20" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="78" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="75" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
     </row>
     <row r="10" spans="1:13" s="20" customFormat="1" ht="72" customHeight="1">
-      <c r="A10" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="78"/>
-      <c r="L10" s="79"/>
+      <c r="A10" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="91" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
     </row>
     <row r="12" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+    </row>
+    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
+    </row>
+    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
+      <c r="A14" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="79"/>
-    </row>
-    <row r="13" spans="1:13" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
-    </row>
-    <row r="14" spans="1:13" s="23" customFormat="1" ht="16.5">
-      <c r="A14" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="79"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
     </row>
     <row r="15" spans="1:13" ht="16.5">
-      <c r="A15" s="87" t="s">
+      <c r="A15" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="90"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="83"/>
+      <c r="I51" s="83"/>
+      <c r="J51" s="83"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="A6:L6"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:L9"/>
@@ -5729,11 +5737,6 @@
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="F12:L12"/>
     <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="A6:L6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
@@ -5804,22 +5807,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="83" t="s">
-        <v>104</v>
+      <c r="P1" s="72" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="84"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="84"/>
+      <c r="P3" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5868,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5899,8 +5902,8 @@
       <c r="H1" s="68"/>
       <c r="I1" s="68"/>
       <c r="J1" s="68"/>
-      <c r="K1" s="112" t="s">
-        <v>105</v>
+      <c r="K1" s="98" t="s">
+        <v>97</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
@@ -5920,7 +5923,7 @@
       <c r="H2" s="68"/>
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
-      <c r="K2" s="113"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:17" s="67" customFormat="1">
       <c r="A3" s="68"/>
@@ -5933,7 +5936,7 @@
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
-      <c r="K3" s="113"/>
+      <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:17" s="67" customFormat="1">
       <c r="A4" s="68"/>
@@ -5948,96 +5951,96 @@
       <c r="J4" s="68"/>
     </row>
     <row r="5" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="114" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
+      <c r="A5" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
     </row>
     <row r="6" spans="1:17" s="52" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
+      <c r="A6" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="114" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="77"/>
+      <c r="A7" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:17" s="52" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A8" s="115" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="A8" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="118"/>
+      <c r="A9" s="95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="97"/>
     </row>
     <row r="10" spans="1:17" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="53" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
+        <v>106</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="103"/>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
     </row>
@@ -6050,32 +6053,32 @@
         <v>121</v>
       </c>
       <c r="D11" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="104" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="105" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
     </row>
     <row r="12" spans="1:17" s="51" customFormat="1">
       <c r="A12" s="58"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="95"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:17" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="107" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B13" s="108"/>
       <c r="C13" s="108"/>
@@ -6089,85 +6092,85 @@
     </row>
     <row r="14" spans="1:17" s="52" customFormat="1">
       <c r="A14" s="59" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C14" s="111"/>
-      <c r="D14" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="D14" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
     </row>
     <row r="15" spans="1:17" s="52" customFormat="1">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
     </row>
     <row r="16" spans="1:17" s="51" customFormat="1">
       <c r="A16" s="59"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="114"/>
+      <c r="J16" s="115"/>
     </row>
     <row r="17" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="59"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
     </row>
     <row r="18" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="119"/>
     </row>
     <row r="19" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="59"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="98"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="115"/>
     </row>
     <row r="20" spans="1:10" s="52" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="60" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B20" s="61"/>
       <c r="C20" s="62"/>
@@ -6184,32 +6187,32 @@
         <v>1</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="79"/>
+        <v>112</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" s="51" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="59">
         <v>2</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
+        <v>112</v>
+      </c>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
     </row>
     <row r="23" spans="1:10" s="51" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="50"/>
@@ -6224,18 +6227,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:J14"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="C21:J21"/>
@@ -6246,8 +6237,20 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:J17"/>
     <mergeCell ref="A18:J18"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="K1" location="總表!A1" display="回總表"/>
     <hyperlink ref="K1:K3" location="總表!A1" display="回總表"/>
@@ -6267,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6298,7 +6301,7 @@
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
-      <c r="K1" s="112" t="s">
+      <c r="K1" s="98" t="s">
         <v>33</v>
       </c>
       <c r="L1" s="39"/>
@@ -6325,7 +6328,7 @@
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
-      <c r="K2" s="113"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="39"/>
       <c r="M2" s="39"/>
       <c r="N2" s="39"/>
@@ -6343,7 +6346,7 @@
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="113"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="39"/>
       <c r="M3" s="39"/>
       <c r="N3" s="39"/>
@@ -6387,18 +6390,18 @@
       <c r="P5" s="39"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="122" t="s">
+      <c r="A6" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="124"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39"/>
@@ -6417,7 +6420,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>11</v>
@@ -6432,7 +6435,7 @@
         <v>36</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J7" s="42" t="s">
         <v>0</v>
@@ -6465,32 +6468,32 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="122" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
+      <c r="A10" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="124"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
     </row>
     <row r="11" spans="1:23" s="51" customFormat="1">
-      <c r="A11" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
+      <c r="A11" s="120" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="122"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="42" t="s">
@@ -6500,10 +6503,10 @@
         <v>35</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>11</v>
@@ -6518,7 +6521,7 @@
         <v>36</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J12" s="42" t="s">
         <v>0</v>
@@ -6529,104 +6532,62 @@
         <v>1</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="45"/>
       <c r="E13" s="45" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H13" s="45"/>
       <c r="I13" s="43" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="66">
-      <c r="A14" s="48">
-        <v>2</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>94</v>
-      </c>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="48"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="49"/>
       <c r="D14" s="45"/>
-      <c r="E14" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>84</v>
-      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="33">
-      <c r="A15" s="48">
-        <v>3</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>85</v>
-      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="65"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="48"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="49"/>
       <c r="D15" s="45"/>
-      <c r="E15" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>57</v>
-      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="33">
-      <c r="A16" s="48">
-        <v>4</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>88</v>
-      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="65"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="48"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="49"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>87</v>
-      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="65" t="s">
-        <v>97</v>
-      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="48"/>
@@ -6641,18 +6602,18 @@
       <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="119" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="120"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="121"/>
+      <c r="A18" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="42" t="s">
@@ -6662,10 +6623,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E19" s="42" t="s">
         <v>11</v>
@@ -6680,7 +6641,7 @@
         <v>36</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J19" s="42" t="s">
         <v>0</v>
@@ -6691,7 +6652,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="49"/>
       <c r="D20" s="45"/>
@@ -6715,25 +6676,25 @@
         <v>2</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F21" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="45" t="s">
         <v>49</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>50</v>
       </c>
       <c r="H21" s="45"/>
       <c r="I21" s="43" t="s">
         <v>45</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6749,18 +6710,18 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="119" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="120"/>
-      <c r="J23" s="121"/>
+      <c r="A23" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="42" t="s">
@@ -6770,10 +6731,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>11</v>
@@ -6788,7 +6749,7 @@
         <v>36</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J24" s="42" t="s">
         <v>0</v>
@@ -6799,18 +6760,18 @@
         <v>1</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="45"/>
       <c r="E25" s="45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" s="45"/>
       <c r="I25" s="43" t="s">
@@ -6823,25 +6784,25 @@
         <v>2</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="49"/>
       <c r="D26" s="45"/>
       <c r="E26" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" s="45"/>
       <c r="I26" s="43" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J26" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6857,18 +6818,18 @@
       <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="119" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="120"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="121"/>
+      <c r="A28" s="120" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="121"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="122"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="42" t="s">
@@ -6878,10 +6839,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>11</v>
@@ -6896,7 +6857,7 @@
         <v>36</v>
       </c>
       <c r="I29" s="42" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J29" s="42" t="s">
         <v>0</v>
@@ -6907,25 +6868,25 @@
         <v>1</v>
       </c>
       <c r="B30" s="45" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" s="49"/>
       <c r="D30" s="45"/>
       <c r="E30" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H30" s="45"/>
       <c r="I30" s="43" t="s">
         <v>43</v>
       </c>
       <c r="J30" s="65" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="66">
@@ -6933,25 +6894,25 @@
         <v>2</v>
       </c>
       <c r="B31" s="45" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C31" s="49"/>
       <c r="D31" s="45"/>
       <c r="E31" s="45" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F31" s="45" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G31" s="45" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H31" s="45"/>
       <c r="I31" s="43" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="J31" s="65" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="33">
@@ -6959,25 +6920,25 @@
         <v>3</v>
       </c>
       <c r="B32" s="45" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C32" s="49"/>
       <c r="D32" s="45"/>
       <c r="E32" s="45" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F32" s="45" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G32" s="45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H32" s="45"/>
       <c r="I32" s="43" t="s">
         <v>45</v>
       </c>
       <c r="J32" s="65" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="33">
@@ -6985,25 +6946,25 @@
         <v>4</v>
       </c>
       <c r="B33" s="45" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C33" s="49"/>
       <c r="D33" s="45"/>
       <c r="E33" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" s="45" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H33" s="45"/>
       <c r="I33" s="43" t="s">
         <v>45</v>
       </c>
       <c r="J33" s="65" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:10">
